--- a/Excel Practice Sheet  - 3.xlsx
+++ b/Excel Practice Sheet  - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0229F7CB-549D-4B9F-8A97-526E473B1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95E148C-0D0A-40F6-B7B6-70F043497F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{70F02FC4-D65B-4257-A822-7A54D7E54368}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="257">
   <si>
     <t>Praveen</t>
   </si>
@@ -611,6 +611,195 @@
   </si>
   <si>
     <t>[=SUM(COUNTIF(E3:E14,"P"),COUNTIF(E3:E14,"HDM"),COUNTIF(E3:E14,"HDE"))]</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Chicken Meat</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Beef Meat</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Cucumbers</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Pork Meat</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Bacon Meat</t>
+  </si>
+  <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Salmon Fish</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>[=SUMPRODUCT(F3:F30,G3:G30)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune * Num * Num= 0 </t>
+  </si>
+  <si>
+    <t>Use -- to Convert</t>
+  </si>
+  <si>
+    <t>True = 1 False = 0</t>
+  </si>
+  <si>
+    <t>[=SUMPRODUCT(F3:F30,G3:G30,(--(D3:D30="Pune")))]</t>
+  </si>
+  <si>
+    <t>[=SUMPRODUCT(F3:F30,G3:G30,--((D3:D30="Pune")+(D3:D30="Delhi")))]</t>
+  </si>
+  <si>
+    <t>Or =+</t>
+  </si>
+  <si>
+    <t>And = *</t>
+  </si>
+  <si>
+    <t>Q1 -Total Sales(Sell Price * Quantity)</t>
+  </si>
+  <si>
+    <t>Q2- Total Sales For Pune Location</t>
+  </si>
+  <si>
+    <t>Q3- Total Sales For Pune + Delhi Location</t>
+  </si>
+  <si>
+    <t>Q4- Total sale only where category is "c" and Location is "Pune"</t>
+  </si>
+  <si>
+    <t>[=SUMPRODUCT(F3:F30,G3:G30,--((C3:C30="C")*(D3:D30="Pune")))]</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -619,7 +808,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -697,7 +886,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,8 +983,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -946,23 +1147,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -971,15 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,13 +1188,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,9 +1263,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1087,12 +1278,59 @@
     <xf numFmtId="43" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1431,36 +1669,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1486,10 +1724,10 @@
       <c r="H5" s="1">
         <v>321</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1518,7 +1756,7 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1547,7 +1785,7 @@
       <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1576,7 +1814,7 @@
       <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1605,7 +1843,7 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1634,7 +1872,7 @@
       <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1663,7 +1901,7 @@
       <c r="J11" s="1">
         <v>6</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1692,7 +1930,7 @@
       <c r="J12" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1721,7 +1959,7 @@
       <c r="J13" s="1">
         <v>8</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4376,41 +4614,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
@@ -4423,10 +4661,10 @@
       <c r="E5" s="1">
         <v>8000</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>117</v>
       </c>
@@ -4439,10 +4677,10 @@
       <c r="E6" s="1">
         <v>30000</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
@@ -4455,10 +4693,10 @@
       <c r="E7" s="1">
         <v>2000</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>121</v>
       </c>
@@ -4471,10 +4709,10 @@
       <c r="E8" s="1">
         <v>800</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>123</v>
       </c>
@@ -4487,10 +4725,10 @@
       <c r="E9" s="1">
         <v>1500</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
@@ -4503,10 +4741,10 @@
       <c r="E10" s="1">
         <v>35000</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>127</v>
       </c>
@@ -4519,10 +4757,10 @@
       <c r="E11" s="1">
         <v>500</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
@@ -4535,43 +4773,43 @@
       <c r="E12" s="1">
         <v>2500</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4583,7 +4821,7 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1">
         <v>2</v>
       </c>
@@ -4598,41 +4836,41 @@
     <row r="17" spans="2:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4644,14 +4882,14 @@
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="10">
         <f>INDEX($E$5:$E$12,C21)</f>
         <v>30000</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="12">
         <f>D21*E21</f>
         <v>60000</v>
       </c>
@@ -4664,14 +4902,14 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="10">
         <f t="shared" ref="D22:D27" si="1">INDEX($E$5:$E$12,C22)</f>
         <v>8000</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="12">
         <f t="shared" ref="F22:F27" si="2">D22*E22</f>
         <v>16000</v>
       </c>
@@ -4684,14 +4922,14 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="10">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="12">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
@@ -4704,14 +4942,14 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="10">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="12">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
@@ -4724,14 +4962,14 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="10">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="12">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
@@ -4744,14 +4982,14 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="10">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="12">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
@@ -4764,20 +5002,20 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="10">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="12">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="C28" s="17"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4808,47 +5046,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5061,36 +5299,36 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="13" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5102,21 +5340,21 @@
         <f>MATCH(B16,B5:B12,0)</f>
         <v>2</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="E18" s="12"/>
+      <c r="E18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5137,1503 +5375,1503 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="34"/>
-    <col min="2" max="2" width="6.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="34" width="6.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.21875" style="34" customWidth="1"/>
-    <col min="41" max="41" width="11.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="34"/>
+    <col min="1" max="1" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="6.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="34" width="6.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.21875" style="28" customWidth="1"/>
+    <col min="41" max="41" width="11.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40">
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
     </row>
     <row r="2" spans="2:40">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>45170</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="19">
         <v>45171</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="19">
         <v>45172</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="19">
         <v>45173</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="19">
         <v>45174</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="19">
         <v>45175</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="19">
         <v>45176</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="19">
         <v>45177</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="19">
         <v>45178</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="19">
         <v>45179</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="19">
         <v>45180</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="19">
         <v>45181</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="19">
         <v>45182</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="19">
         <v>45183</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="19">
         <v>45184</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="19">
         <v>45185</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="19">
         <v>45186</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="19">
         <v>45187</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="19">
         <v>45188</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="19">
         <v>45189</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="19">
         <v>45190</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="19">
         <v>45191</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="19">
         <v>45192</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="19">
         <v>45193</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="19">
         <v>45194</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AD2" s="19">
         <v>45195</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AE2" s="19">
         <v>45196</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AF2" s="19">
         <v>45197</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AG2" s="19">
         <v>45198</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AH2" s="19">
         <v>45199</v>
       </c>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AK2" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AL2" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="AM2" s="26" t="s">
+      <c r="AM2" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AN2" s="26" t="s">
+      <c r="AN2" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:40">
-      <c r="B3" s="28">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="29" t="s">
+      <c r="H3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="29" t="s">
+      <c r="L3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U3" s="29" t="s">
+      <c r="O3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="30" t="s">
+      <c r="W3" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="X3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB3" s="29" t="s">
+      <c r="X3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB3" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI3" s="27">
+      <c r="AC3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI3" s="21">
         <f>COUNTIF(E3:AH3,"HDM")</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="27">
+      <c r="AJ3" s="21">
         <f>COUNTIF(E3:AH3,"HDE")</f>
         <v>2</v>
       </c>
-      <c r="AK3" s="35">
+      <c r="AK3" s="29">
         <f>COUNTIF(E3:AH3,"P")</f>
         <v>23</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AL3" s="24">
         <f>SUM(AI3/2,AJ3/2,AK3)</f>
         <v>24</v>
       </c>
-      <c r="AM3" s="27">
+      <c r="AM3" s="21">
         <f>COUNTIF(E3:AH3,"H")</f>
         <v>5</v>
       </c>
-      <c r="AN3" s="31">
+      <c r="AN3" s="25">
         <f>SUM(AL3,AM3)</f>
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:40">
-      <c r="B4" s="28">
+      <c r="B4" s="22">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="H4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="29" t="s">
+      <c r="L4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U4" s="29" t="s">
+      <c r="O4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W4" s="30" t="s">
+      <c r="V4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W4" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="X4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB4" s="29" t="s">
+      <c r="X4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH4" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="31"/>
+      <c r="AC4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="25"/>
     </row>
     <row r="5" spans="2:40">
-      <c r="B5" s="28">
+      <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="29" t="s">
+      <c r="H5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="29" t="s">
+      <c r="L5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T5" s="30" t="s">
+      <c r="O5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T5" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="W5" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="Y5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB5" s="29" t="s">
+      <c r="Y5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH5" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="31"/>
+      <c r="AC5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="25"/>
     </row>
     <row r="6" spans="2:40">
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="E6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="29" t="s">
+      <c r="H6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" s="29" t="s">
+      <c r="L6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R6" s="32" t="s">
+      <c r="O6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W6" s="30" t="s">
+      <c r="V6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W6" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="Y6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA6" s="32" t="s">
+      <c r="Y6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AB6" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AC6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AD6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG6" s="30" t="s">
+      <c r="AE6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG6" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AH6" s="30" t="s">
+      <c r="AH6" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="31"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="25"/>
     </row>
     <row r="7" spans="2:40">
-      <c r="B7" s="28">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="29" t="s">
+      <c r="E7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="29" t="s">
+      <c r="H7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="29" t="s">
+      <c r="L7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U7" s="29" t="s">
+      <c r="O7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB7" s="29" t="s">
+      <c r="V7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB7" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="31"/>
+      <c r="AC7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="25"/>
     </row>
     <row r="8" spans="2:40">
-      <c r="B8" s="28">
+      <c r="B8" s="22">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="29" t="s">
+      <c r="H8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N8" s="29" t="s">
+      <c r="L8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U8" s="29" t="s">
+      <c r="O8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="V8" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="W8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB8" s="29" t="s">
+      <c r="W8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH8" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="31"/>
+      <c r="AC8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="25"/>
     </row>
     <row r="9" spans="2:40">
-      <c r="B9" s="28">
+      <c r="B9" s="22">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="E9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="H9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N9" s="29" t="s">
+      <c r="L9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R9" s="32" t="s">
+      <c r="O9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U9" s="29" t="s">
+      <c r="S9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB9" s="29" t="s">
+      <c r="V9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="31"/>
+      <c r="AC9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="25"/>
     </row>
     <row r="10" spans="2:40">
-      <c r="B10" s="28">
+      <c r="B10" s="22">
         <v>8</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="E10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="H10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N10" s="29" t="s">
+      <c r="L10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U10" s="29" t="s">
+      <c r="O10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB10" s="29" t="s">
+      <c r="V10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH10" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="31"/>
+      <c r="AC10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="25"/>
     </row>
     <row r="11" spans="2:40">
-      <c r="B11" s="28">
+      <c r="B11" s="22">
         <v>9</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="H11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N11" s="29" t="s">
+      <c r="L11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U11" s="29" t="s">
+      <c r="O11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB11" s="29" t="s">
+      <c r="V11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB11" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="31"/>
+      <c r="AC11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH11" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="25"/>
     </row>
     <row r="12" spans="2:40">
-      <c r="B12" s="28">
+      <c r="B12" s="22">
         <v>10</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="29" t="s">
+      <c r="E12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="29" t="s">
+      <c r="H12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="29" t="s">
+      <c r="L12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U12" s="29" t="s">
+      <c r="O12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X12" s="30" t="s">
+      <c r="V12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="Y12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB12" s="29" t="s">
+      <c r="Y12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="31"/>
+      <c r="AC12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH12" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="25"/>
     </row>
     <row r="13" spans="2:40">
-      <c r="B13" s="28">
+      <c r="B13" s="22">
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="E13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="29" t="s">
+      <c r="H13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N13" s="29" t="s">
+      <c r="L13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U13" s="29" t="s">
+      <c r="O13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="W13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="X13" s="30" t="s">
+      <c r="V13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="Y13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB13" s="29" t="s">
+      <c r="Y13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB13" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="31"/>
+      <c r="AC13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH13" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="25"/>
     </row>
     <row r="14" spans="2:40">
-      <c r="B14" s="28">
+      <c r="B14" s="22">
         <v>12</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="29" t="s">
+      <c r="E14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="H14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="L14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="29" t="s">
+      <c r="L14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="U14" s="29" t="s">
+      <c r="O14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="U14" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="W14" s="30" t="s">
+      <c r="W14" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="X14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y14" s="32" t="s">
+      <c r="X14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="Z14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB14" s="29" t="s">
+      <c r="Z14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB14" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="AC14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG14" s="30" t="s">
+      <c r="AC14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF14" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG14" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AH14" s="30" t="s">
+      <c r="AH14" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="31"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="25"/>
     </row>
     <row r="15" spans="2:40">
-      <c r="B15" s="27"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="29" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
     </row>
     <row r="17" spans="2:44" ht="14.4" thickBot="1">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>158</v>
       </c>
       <c r="E17" s="47" t="s">
@@ -6654,366 +6892,366 @@
       <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:44" ht="25.2" thickBot="1">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="AI18" s="39" t="s">
+      <c r="AI18" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="AJ18" s="19" t="s">
+      <c r="AJ18" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AK18" s="19" t="s">
+      <c r="AK18" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AL18" s="19" t="s">
+      <c r="AL18" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="AM18" s="19" t="s">
+      <c r="AM18" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="AN18" s="19" t="s">
+      <c r="AN18" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="AO18" s="27" t="s">
+      <c r="AO18" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:44" ht="14.4" thickBot="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="AI19" s="40">
+      <c r="AI19" s="34">
         <v>0</v>
       </c>
-      <c r="AJ19" s="20">
+      <c r="AJ19" s="14">
         <v>2</v>
       </c>
-      <c r="AK19" s="20">
+      <c r="AK19" s="14">
         <v>23</v>
       </c>
-      <c r="AL19" s="21">
+      <c r="AL19" s="15">
         <v>24</v>
       </c>
-      <c r="AM19" s="22">
+      <c r="AM19" s="16">
         <v>5</v>
       </c>
-      <c r="AN19" s="23">
+      <c r="AN19" s="17">
         <v>29</v>
       </c>
-      <c r="AO19" s="45">
-        <f>666.6667*AN3</f>
+      <c r="AO19" s="38">
+        <f t="shared" ref="AO19:AO30" si="0">666.6667*AN3</f>
         <v>19333.334299999999</v>
       </c>
-      <c r="AQ19" s="43">
+      <c r="AQ19" s="36">
         <v>20000</v>
       </c>
-      <c r="AR19" s="44" t="s">
+      <c r="AR19" s="37" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:44" ht="14.4" thickBot="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="AI20" s="40">
+      <c r="AI20" s="34">
         <v>0</v>
       </c>
-      <c r="AJ20" s="20">
+      <c r="AJ20" s="14">
         <v>1</v>
       </c>
-      <c r="AK20" s="20">
+      <c r="AK20" s="14">
         <v>24</v>
       </c>
-      <c r="AL20" s="21">
+      <c r="AL20" s="15">
         <v>24.5</v>
       </c>
-      <c r="AM20" s="22">
+      <c r="AM20" s="16">
         <v>5</v>
       </c>
-      <c r="AN20" s="23">
+      <c r="AN20" s="17">
         <v>29.5</v>
       </c>
-      <c r="AO20" s="45">
-        <f>666.6667*AN4</f>
+      <c r="AO20" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="44" t="s">
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="37" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:44" ht="14.4" thickBot="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="AI21" s="40">
+      <c r="AI21" s="34">
         <v>0</v>
       </c>
-      <c r="AJ21" s="20">
+      <c r="AJ21" s="14">
         <v>3</v>
       </c>
-      <c r="AK21" s="20">
+      <c r="AK21" s="14">
         <v>21</v>
       </c>
-      <c r="AL21" s="21">
+      <c r="AL21" s="15">
         <v>22.5</v>
       </c>
-      <c r="AM21" s="22">
+      <c r="AM21" s="16">
         <v>5</v>
       </c>
-      <c r="AN21" s="23">
+      <c r="AN21" s="17">
         <v>27.5</v>
       </c>
-      <c r="AO21" s="45">
-        <f>666.6667*AN5</f>
+      <c r="AO21" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="43" t="s">
+      <c r="AQ21" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AR21" s="44">
+      <c r="AR21" s="37">
         <f>20000/30</f>
         <v>666.66666666666663</v>
       </c>
     </row>
     <row r="22" spans="2:44" ht="14.4" thickBot="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="AI22" s="40">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="AI22" s="34">
         <v>0</v>
       </c>
-      <c r="AJ22" s="20">
+      <c r="AJ22" s="14">
         <v>3</v>
       </c>
-      <c r="AK22" s="20">
+      <c r="AK22" s="14">
         <v>15</v>
       </c>
-      <c r="AL22" s="21">
+      <c r="AL22" s="15">
         <v>16.5</v>
       </c>
-      <c r="AM22" s="22">
+      <c r="AM22" s="16">
         <v>5</v>
       </c>
-      <c r="AN22" s="23">
+      <c r="AN22" s="17">
         <v>21.5</v>
       </c>
-      <c r="AO22" s="45">
-        <f>666.6667*AN6</f>
+      <c r="AO22" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI23" s="40">
+      <c r="AI23" s="34">
         <v>0</v>
       </c>
-      <c r="AJ23" s="20">
+      <c r="AJ23" s="14">
         <v>0</v>
       </c>
-      <c r="AK23" s="20">
+      <c r="AK23" s="14">
         <v>25</v>
       </c>
-      <c r="AL23" s="21">
+      <c r="AL23" s="15">
         <v>25</v>
       </c>
-      <c r="AM23" s="22">
+      <c r="AM23" s="16">
         <v>5</v>
       </c>
-      <c r="AN23" s="23">
+      <c r="AN23" s="17">
         <v>30</v>
       </c>
-      <c r="AO23" s="45">
-        <f>666.6667*AN7</f>
+      <c r="AO23" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI24" s="40">
+      <c r="AI24" s="34">
         <v>0</v>
       </c>
-      <c r="AJ24" s="20">
+      <c r="AJ24" s="14">
         <v>1</v>
       </c>
-      <c r="AK24" s="20">
+      <c r="AK24" s="14">
         <v>24</v>
       </c>
-      <c r="AL24" s="21">
+      <c r="AL24" s="15">
         <v>24.5</v>
       </c>
-      <c r="AM24" s="22">
+      <c r="AM24" s="16">
         <v>5</v>
       </c>
-      <c r="AN24" s="23">
+      <c r="AN24" s="17">
         <v>29.5</v>
       </c>
-      <c r="AO24" s="45">
-        <f>666.6667*AN8</f>
+      <c r="AO24" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI25" s="40">
+      <c r="AI25" s="34">
         <v>0</v>
       </c>
-      <c r="AJ25" s="20">
+      <c r="AJ25" s="14">
         <v>0</v>
       </c>
-      <c r="AK25" s="20">
+      <c r="AK25" s="14">
         <v>24</v>
       </c>
-      <c r="AL25" s="21">
+      <c r="AL25" s="15">
         <v>24</v>
       </c>
-      <c r="AM25" s="22">
+      <c r="AM25" s="16">
         <v>5</v>
       </c>
-      <c r="AN25" s="23">
+      <c r="AN25" s="17">
         <v>29</v>
       </c>
-      <c r="AO25" s="45">
-        <f>666.6667*AN9</f>
+      <c r="AO25" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI26" s="40">
+      <c r="AI26" s="34">
         <v>0</v>
       </c>
-      <c r="AJ26" s="20">
+      <c r="AJ26" s="14">
         <v>0</v>
       </c>
-      <c r="AK26" s="20">
+      <c r="AK26" s="14">
         <v>25</v>
       </c>
-      <c r="AL26" s="21">
+      <c r="AL26" s="15">
         <v>25</v>
       </c>
-      <c r="AM26" s="22">
+      <c r="AM26" s="16">
         <v>5</v>
       </c>
-      <c r="AN26" s="23">
+      <c r="AN26" s="17">
         <v>30</v>
       </c>
-      <c r="AO26" s="45">
-        <f>666.6667*AN10</f>
+      <c r="AO26" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI27" s="40">
+      <c r="AI27" s="34">
         <v>0</v>
       </c>
-      <c r="AJ27" s="20">
+      <c r="AJ27" s="14">
         <v>0</v>
       </c>
-      <c r="AK27" s="20">
+      <c r="AK27" s="14">
         <v>25</v>
       </c>
-      <c r="AL27" s="21">
+      <c r="AL27" s="15">
         <v>25</v>
       </c>
-      <c r="AM27" s="22">
+      <c r="AM27" s="16">
         <v>5</v>
       </c>
-      <c r="AN27" s="23">
+      <c r="AN27" s="17">
         <v>30</v>
       </c>
-      <c r="AO27" s="45">
-        <f>666.6667*AN11</f>
+      <c r="AO27" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI28" s="40">
+      <c r="AI28" s="34">
         <v>0</v>
       </c>
-      <c r="AJ28" s="20">
+      <c r="AJ28" s="14">
         <v>1</v>
       </c>
-      <c r="AK28" s="20">
+      <c r="AK28" s="14">
         <v>24</v>
       </c>
-      <c r="AL28" s="21">
+      <c r="AL28" s="15">
         <v>24.5</v>
       </c>
-      <c r="AM28" s="22">
+      <c r="AM28" s="16">
         <v>5</v>
       </c>
-      <c r="AN28" s="23">
+      <c r="AN28" s="17">
         <v>29.5</v>
       </c>
-      <c r="AO28" s="45">
-        <f>666.6667*AN12</f>
+      <c r="AO28" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI29" s="40">
+      <c r="AI29" s="34">
         <v>0</v>
       </c>
-      <c r="AJ29" s="20">
+      <c r="AJ29" s="14">
         <v>1</v>
       </c>
-      <c r="AK29" s="20">
+      <c r="AK29" s="14">
         <v>24</v>
       </c>
-      <c r="AL29" s="21">
+      <c r="AL29" s="15">
         <v>24.5</v>
       </c>
-      <c r="AM29" s="22">
+      <c r="AM29" s="16">
         <v>5</v>
       </c>
-      <c r="AN29" s="23">
+      <c r="AN29" s="17">
         <v>29.5</v>
       </c>
-      <c r="AO29" s="45">
-        <f>666.6667*AN13</f>
+      <c r="AO29" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:44" ht="14.4" thickBot="1">
-      <c r="AI30" s="40">
+      <c r="AI30" s="34">
         <v>0</v>
       </c>
-      <c r="AJ30" s="20">
+      <c r="AJ30" s="14">
         <v>3</v>
       </c>
-      <c r="AK30" s="20">
+      <c r="AK30" s="14">
         <v>20</v>
       </c>
-      <c r="AL30" s="21">
+      <c r="AL30" s="15">
         <v>21.5</v>
       </c>
-      <c r="AM30" s="22">
+      <c r="AM30" s="16">
         <v>5</v>
       </c>
-      <c r="AN30" s="23">
+      <c r="AN30" s="17">
         <v>26.5</v>
       </c>
-      <c r="AO30" s="45">
-        <f>666.6667*AN14</f>
+      <c r="AO30" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:44">
-      <c r="AO31" s="46">
+      <c r="AO31" s="39">
         <f>SUM(AO19:AO30)</f>
         <v>19333.334299999999</v>
       </c>
@@ -7030,19 +7268,664 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0D5589-1DE1-400A-B7C7-81FCBD467130}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="54">
+        <v>44868</v>
+      </c>
+      <c r="F3" s="52">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="G3" s="51">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="54">
+        <v>44901</v>
+      </c>
+      <c r="F4" s="52">
+        <v>123.49</v>
+      </c>
+      <c r="G4" s="51">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>74359.55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="54">
+        <v>44903</v>
+      </c>
+      <c r="F5" s="52">
+        <v>99.99</v>
+      </c>
+      <c r="G5" s="51">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="54">
+        <v>44906</v>
+      </c>
+      <c r="F6" s="52">
+        <v>89.49</v>
+      </c>
+      <c r="G6" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="54">
+        <v>44910</v>
+      </c>
+      <c r="F7" s="52">
+        <v>50.99</v>
+      </c>
+      <c r="G7" s="51">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="54">
+        <v>44944</v>
+      </c>
+      <c r="F8" s="52">
+        <v>160.99</v>
+      </c>
+      <c r="G8" s="51">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>13095.299999999997</v>
+      </c>
+      <c r="L8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="54">
+        <v>44978</v>
+      </c>
+      <c r="F9" s="52">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="G9" s="51">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="54">
+        <v>45010</v>
+      </c>
+      <c r="F10" s="52">
+        <v>98.29</v>
+      </c>
+      <c r="G10" s="51">
+        <v>35</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="54">
+        <v>45044</v>
+      </c>
+      <c r="F11" s="52">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="G11" s="51">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="54">
+        <v>45048</v>
+      </c>
+      <c r="F12" s="52">
+        <v>57.79</v>
+      </c>
+      <c r="G12" s="51">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>30383.65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="54">
+        <v>45082</v>
+      </c>
+      <c r="F13" s="52">
+        <v>120.49</v>
+      </c>
+      <c r="G13" s="51">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="54">
+        <v>45114</v>
+      </c>
+      <c r="F14" s="52">
+        <v>95.79</v>
+      </c>
+      <c r="G14" s="51">
+        <v>25</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="54">
+        <v>45147</v>
+      </c>
+      <c r="F15" s="52">
+        <v>53.69</v>
+      </c>
+      <c r="G15" s="51">
+        <v>45</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="54">
+        <v>45181</v>
+      </c>
+      <c r="F16" s="52">
+        <v>176.99</v>
+      </c>
+      <c r="G16" s="51">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>10679.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="54">
+        <v>45213</v>
+      </c>
+      <c r="F17" s="52">
+        <v>144.99</v>
+      </c>
+      <c r="G17" s="51">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="54">
+        <v>45247</v>
+      </c>
+      <c r="F18" s="52">
+        <v>59.89</v>
+      </c>
+      <c r="G18" s="51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="54">
+        <v>45280</v>
+      </c>
+      <c r="F19" s="52">
+        <v>88.99</v>
+      </c>
+      <c r="G19" s="51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="54">
+        <v>44856</v>
+      </c>
+      <c r="F20" s="52">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="G20" s="51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="54">
+        <v>44891</v>
+      </c>
+      <c r="F21" s="52">
+        <v>94.49</v>
+      </c>
+      <c r="G21" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="54">
+        <v>44955</v>
+      </c>
+      <c r="F22" s="52">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="G22" s="51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="54">
+        <v>44989</v>
+      </c>
+      <c r="F23" s="52">
+        <v>195.49</v>
+      </c>
+      <c r="G23" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="54">
+        <v>45026</v>
+      </c>
+      <c r="F24" s="52">
+        <v>67.69</v>
+      </c>
+      <c r="G24" s="51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="54">
+        <v>45059</v>
+      </c>
+      <c r="F25" s="52">
+        <v>122.99</v>
+      </c>
+      <c r="G25" s="51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="54">
+        <v>45093</v>
+      </c>
+      <c r="F26" s="52">
+        <v>149.79</v>
+      </c>
+      <c r="G26" s="51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="54">
+        <v>45127</v>
+      </c>
+      <c r="F27" s="52">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="G27" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="54">
+        <v>45161</v>
+      </c>
+      <c r="F28" s="52">
+        <v>188.99</v>
+      </c>
+      <c r="G28" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="54">
+        <v>45196</v>
+      </c>
+      <c r="F29" s="52">
+        <v>97.29</v>
+      </c>
+      <c r="G29" s="51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="54">
+        <v>45260</v>
+      </c>
+      <c r="F30" s="52">
+        <v>112.99</v>
+      </c>
+      <c r="G30" s="51">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Practice Sheet  - 3.xlsx
+++ b/Excel Practice Sheet  - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95E148C-0D0A-40F6-B7B6-70F043497F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29D2C5-687C-4947-AFB2-8F29436F9E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{70F02FC4-D65B-4257-A822-7A54D7E54368}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="255">
   <si>
     <t>Praveen</t>
   </si>
@@ -790,23 +790,18 @@
     <t>[=SUMPRODUCT(F3:F30,G3:G30,--((C3:C30="C")*(D3:D30="Pune")))]</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t xml:space="preserve">Q5- Total sales in November Month </t>
+  </si>
+  <si>
+    <t>[=SUMPRODUCT(F3:F30,G3:G30,--(MONTH(E3:E30="11")))]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1159,9 +1154,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1278,6 +1274,29 @@
     <xf numFmtId="43" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,35 +1324,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1669,15 +1666,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
@@ -4614,11 +4611,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
@@ -5046,17 +5043,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="6"/>
@@ -5392,11 +5389,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40">
-      <c r="AL1" s="46" t="s">
+      <c r="AL1" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="2:40">
       <c r="B2" s="18" t="s">
@@ -6874,22 +6871,22 @@
       <c r="D17" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="2:44" ht="25.2" thickBot="1">
       <c r="B18" s="27"/>
@@ -7271,7 +7268,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7279,7 +7276,7 @@
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="60.88671875" bestFit="1" customWidth="1"/>
@@ -7288,45 +7285,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="46" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="58">
         <v>44868</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="42">
         <v>79.989999999999995</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="1">
         <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7334,22 +7331,22 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="44">
         <v>44901</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="42">
         <v>123.49</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="1">
         <v>50</v>
       </c>
       <c r="I4" s="2"/>
@@ -7358,22 +7355,22 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="44">
         <v>44903</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="42">
         <v>99.99</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="1">
         <v>20</v>
       </c>
       <c r="I5" t="s">
@@ -7381,42 +7378,42 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="44">
         <v>44906</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="42">
         <v>89.49</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="44">
         <v>44910</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="42">
         <v>50.99</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="1">
         <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7424,22 +7421,22 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="44">
         <v>44944</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="42">
         <v>160.99</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="1">
         <v>15</v>
       </c>
       <c r="I8" s="2"/>
@@ -7451,71 +7448,71 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="44">
         <v>44978</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="42">
         <v>73.989999999999995</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="1">
         <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="47" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="44">
         <v>45010</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="42">
         <v>98.29</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="1">
         <v>35</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="47" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="44">
         <v>45044</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="42">
         <v>66.790000000000006</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="1">
         <v>20</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7523,22 +7520,22 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="44">
         <v>45048</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="42">
         <v>57.79</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="1">
         <v>70</v>
       </c>
       <c r="I12" s="2"/>
@@ -7547,71 +7544,71 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="44">
         <v>45082</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="42">
         <v>120.49</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="1">
         <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="48" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="44">
         <v>45114</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="42">
         <v>95.79</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="1">
         <v>25</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="48" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="44">
         <v>45147</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="42">
         <v>53.69</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="1">
         <v>45</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -7619,22 +7616,22 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="44">
         <v>45181</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="42">
         <v>176.99</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="1">
         <v>12</v>
       </c>
       <c r="I16" s="2"/>
@@ -7642,290 +7639,304 @@
         <v>10679.25</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="51" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="44">
         <v>45213</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="42">
         <v>144.99</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="1">
         <v>18</v>
       </c>
       <c r="I17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="44">
         <v>45247</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="42">
         <v>59.89</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="44">
         <v>45280</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="42">
         <v>88.99</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="51" t="s">
+      <c r="I19" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="44">
         <v>44856</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="42">
         <v>79.290000000000006</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="51" t="s">
+      <c r="I20" s="2">
+        <f>SUMPRODUCT(F3:F30,G3:G30,--(MONTH(E3:E30="11")))</f>
+        <v>74359.55</v>
+      </c>
+      <c r="J20" s="2">
+        <v>74359.55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="44">
         <v>44891</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="42">
         <v>94.49</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="51" t="s">
+      <c r="I21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="44">
         <v>44955</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="42">
         <v>68.790000000000006</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="51" t="s">
+    <row r="23" spans="2:10">
+      <c r="B23" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="44">
         <v>44989</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="42">
         <v>195.49</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="51" t="s">
+    <row r="24" spans="2:10">
+      <c r="B24" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="44">
         <v>45026</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="42">
         <v>67.69</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="51" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="44">
         <v>45059</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="42">
         <v>122.99</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="51" t="s">
+    <row r="26" spans="2:10">
+      <c r="B26" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="44">
         <v>45093</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="42">
         <v>149.79</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="51" t="s">
+    <row r="27" spans="2:10">
+      <c r="B27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="44">
         <v>45127</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="42">
         <v>71.290000000000006</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="51" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="44">
         <v>45161</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="42">
         <v>188.99</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="51" t="s">
+    <row r="29" spans="2:10">
+      <c r="B29" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="44">
         <v>45196</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="42">
         <v>97.29</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="51" t="s">
+    <row r="30" spans="2:10">
+      <c r="B30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="44">
         <v>45260</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="42">
         <v>112.99</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="1">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Practice Sheet  - 3.xlsx
+++ b/Excel Practice Sheet  - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29D2C5-687C-4947-AFB2-8F29436F9E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB34F36D-6B16-4817-BEB2-9453756FA919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{70F02FC4-D65B-4257-A822-7A54D7E54368}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="260">
   <si>
     <t>Praveen</t>
   </si>
@@ -794,6 +794,21 @@
   </si>
   <si>
     <t>[=SUMPRODUCT(F3:F30,G3:G30,--(MONTH(E3:E30="11")))]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY Table </t>
+  </si>
+  <si>
+    <t>Without SumProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With SumProduct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodct pricing Table </t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1310,9 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1324,7 +1340,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1666,15 +1685,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
@@ -4611,11 +4630,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
@@ -5043,17 +5062,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="6"/>
@@ -5367,7 +5386,7 @@
   <dimension ref="B1:AR31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E17" sqref="E17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5389,11 +5408,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40">
-      <c r="AL1" s="55" t="s">
+      <c r="AL1" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="2:40">
       <c r="B2" s="18" t="s">
@@ -6871,22 +6890,22 @@
       <c r="D17" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="2:44" ht="25.2" thickBot="1">
       <c r="B18" s="27"/>
@@ -7265,23 +7284,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0D5589-1DE1-400A-B7C7-81FCBD467130}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -7317,7 +7340,7 @@
       <c r="D3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="47">
         <v>44868</v>
       </c>
       <c r="F3" s="42">
@@ -7326,7 +7349,7 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7349,8 +7372,8 @@
       <c r="G4" s="1">
         <v>50</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>74359.55</v>
       </c>
     </row>
@@ -7373,7 +7396,7 @@
       <c r="G5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -7416,7 +7439,7 @@
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7439,11 +7462,11 @@
       <c r="G8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
         <v>13095.299999999997</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="6" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7466,10 +7489,10 @@
       <c r="G9" s="1">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="57" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7492,7 +7515,7 @@
       <c r="G10" s="1">
         <v>35</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="57" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7515,7 +7538,7 @@
       <c r="G11" s="1">
         <v>20</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7538,8 +7561,8 @@
       <c r="G12" s="1">
         <v>70</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <v>30383.65</v>
       </c>
     </row>
@@ -7562,10 +7585,10 @@
       <c r="G13" s="1">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="58" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7588,7 +7611,7 @@
       <c r="G14" s="1">
         <v>25</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="58" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7611,7 +7634,7 @@
       <c r="G15" s="1">
         <v>45</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7634,8 +7657,8 @@
       <c r="G16" s="1">
         <v>12</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <v>10679.25</v>
       </c>
     </row>
@@ -7658,7 +7681,7 @@
       <c r="G17" s="1">
         <v>18</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7701,7 +7724,7 @@
       <c r="G19" s="1">
         <v>25</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7724,11 +7747,11 @@
       <c r="G20" s="1">
         <v>55</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <f>SUMPRODUCT(F3:F30,G3:G30,--(MONTH(E3:E30="11")))</f>
         <v>74359.55</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>74359.55</v>
       </c>
     </row>
@@ -7751,7 +7774,7 @@
       <c r="G21" s="1">
         <v>30</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7933,6 +7956,580 @@
       </c>
       <c r="G30" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="1">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1">
+        <v>56</v>
+      </c>
+      <c r="E35" s="1">
+        <v>89</v>
+      </c>
+      <c r="F35" s="1">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1">
+        <v>77</v>
+      </c>
+      <c r="H35" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="1">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1">
+        <v>88</v>
+      </c>
+      <c r="E36" s="1">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1">
+        <v>84</v>
+      </c>
+      <c r="H36" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="1">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1">
+        <v>87</v>
+      </c>
+      <c r="F37" s="1">
+        <v>76</v>
+      </c>
+      <c r="G37" s="1">
+        <v>80</v>
+      </c>
+      <c r="H37" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1">
+        <v>76</v>
+      </c>
+      <c r="E38" s="1">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1">
+        <v>99</v>
+      </c>
+      <c r="G38" s="1">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="1">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1">
+        <v>83</v>
+      </c>
+      <c r="G39" s="1">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="1">
+        <v>88</v>
+      </c>
+      <c r="D40" s="1">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1">
+        <v>98</v>
+      </c>
+      <c r="F40" s="1">
+        <v>63</v>
+      </c>
+      <c r="G40" s="1">
+        <v>87</v>
+      </c>
+      <c r="H40" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1">
+        <v>31</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45</v>
+      </c>
+      <c r="I44" s="6">
+        <f>SUMPRODUCT(C35:H40,C44:H49)</f>
+        <v>86092</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="1">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1">
+        <v>17</v>
+      </c>
+      <c r="F45" s="1">
+        <v>20</v>
+      </c>
+      <c r="G45" s="1">
+        <v>37</v>
+      </c>
+      <c r="H45" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="1">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1">
+        <v>41</v>
+      </c>
+      <c r="E46" s="1">
+        <v>34</v>
+      </c>
+      <c r="F46" s="1">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1">
+        <v>41</v>
+      </c>
+      <c r="F47" s="1">
+        <v>43</v>
+      </c>
+      <c r="G47" s="1">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="1">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="1">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1">
+        <v>26</v>
+      </c>
+      <c r="E49" s="1">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ref="C53:H54" si="0">C35*C44</f>
+        <v>1068</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" ref="D53:H53" si="1">D35*D44</f>
+        <v>2016</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="1"/>
+        <v>3738</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>2242</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="1"/>
+        <v>2387</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>3910</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>3696</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="0"/>
+        <v>1241</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>3108</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ref="C55:H55" si="2">C37*C46</f>
+        <v>2016</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="2"/>
+        <v>3198</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>2958</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>2736</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:H56" si="3">C38*C47</f>
+        <v>1200</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="3"/>
+        <v>3040</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="3"/>
+        <v>2665</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="3"/>
+        <v>4257</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="3"/>
+        <v>2150</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="3"/>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:H57" si="4">C39*C48</f>
+        <v>2387</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="4"/>
+        <v>572</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="4"/>
+        <v>1152</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="4"/>
+        <v>830</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="4"/>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:H58" si="5">C40*C49</f>
+        <v>2288</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="5"/>
+        <v>1560</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="5"/>
+        <v>3038</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="5"/>
+        <v>1134</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="5"/>
+        <v>4002</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="5"/>
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="C59" s="6">
+        <f>SUM(C53:C58)</f>
+        <v>12869</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" ref="D59:H59" si="6">SUM(D53:D58)</f>
+        <v>14082</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="6"/>
+        <v>14792</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="6"/>
+        <v>12759</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="6"/>
+        <v>15347</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" si="6"/>
+        <v>16243</v>
+      </c>
+      <c r="I59" s="6">
+        <f>SUM(C59:H59)</f>
+        <v>86092</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Practice Sheet  - 3.xlsx
+++ b/Excel Practice Sheet  - 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB34F36D-6B16-4817-BEB2-9453756FA919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7A701-0688-4DE8-8487-D9A440F356C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{70F02FC4-D65B-4257-A822-7A54D7E54368}"/>
   </bookViews>
@@ -814,7 +814,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1313,6 +1313,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1340,12 +1346,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1353,7 +1353,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4A114422-24D7-4BB6-8F39-43325B4C3972}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1685,15 +1687,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
@@ -4630,11 +4632,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
@@ -5062,17 +5064,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="6"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="6"/>
@@ -5408,11 +5410,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40">
-      <c r="AL1" s="54" t="s">
+      <c r="AL1" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
     </row>
     <row r="2" spans="2:40">
       <c r="B2" s="18" t="s">
@@ -6890,22 +6892,22 @@
       <c r="D17" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
     </row>
     <row r="18" spans="2:44" ht="25.2" thickBot="1">
       <c r="B18" s="27"/>
@@ -7287,7 +7289,7 @@
   <dimension ref="B2:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7492,7 +7494,7 @@
       <c r="I9" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="48" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7515,7 +7517,7 @@
       <c r="G10" s="1">
         <v>35</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="48" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7588,7 +7590,7 @@
       <c r="I13" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="49" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7611,7 +7613,7 @@
       <c r="G14" s="1">
         <v>25</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="49" t="s">
         <v>247</v>
       </c>
     </row>

--- a/Excel Practice Sheet  - 3.xlsx
+++ b/Excel Practice Sheet  - 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7A701-0688-4DE8-8487-D9A440F356C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F09FCC8-E108-4011-B49F-9E70D61C483C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{70F02FC4-D65B-4257-A822-7A54D7E54368}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{70F02FC4-D65B-4257-A822-7A54D7E54368}"/>
   </bookViews>
   <sheets>
     <sheet name="1- Dynamic Function" sheetId="1" r:id="rId1"/>
@@ -5048,7 +5048,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5387,8 +5387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FAB511-18F4-4AF3-8143-27F9B6A55501}">
   <dimension ref="B1:AR31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:R17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU16" sqref="AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7288,7 +7288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0D5589-1DE1-400A-B7C7-81FCBD467130}">
   <dimension ref="B2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
